--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841810_TUR_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841810_TUR_all.xlsx
@@ -488,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM153"/>
+  <dimension ref="A1:AM145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15296,2976 +15296,2024 @@
     </row>
     <row r="129" spans="1:39">
       <c r="A129">
-        <v>6554</v>
+        <v>7754</v>
       </c>
       <c r="B129">
-        <v>40662</v>
+        <v>58612</v>
       </c>
       <c r="C129">
-        <v>2723</v>
+        <v>3097</v>
       </c>
       <c r="D129">
-        <v>2726</v>
+        <v>3852</v>
       </c>
       <c r="E129">
-        <v>4559</v>
+        <v>6021</v>
       </c>
       <c r="F129">
-        <v>7658</v>
+        <v>9207</v>
       </c>
       <c r="G129">
-        <v>201701</v>
+        <v>201702</v>
       </c>
       <c r="H129">
         <v>2017</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129">
         <v>6554</v>
       </c>
       <c r="K129">
+        <v>6554</v>
+      </c>
+      <c r="L129">
         <v>8971</v>
       </c>
-      <c r="L129">
-        <v>10677</v>
-      </c>
       <c r="M129">
-        <v>13450</v>
+        <v>9977</v>
       </c>
       <c r="N129">
-        <v>9601</v>
+        <v>9244</v>
       </c>
       <c r="O129">
+        <v>40662</v>
+      </c>
+      <c r="P129">
         <v>40694</v>
       </c>
-      <c r="P129">
+      <c r="Q129">
         <v>66666</v>
       </c>
-      <c r="Q129">
-        <v>61826</v>
-      </c>
       <c r="R129">
-        <v>93711</v>
+        <v>69114</v>
       </c>
       <c r="S129">
-        <v>70974</v>
+        <v>79212</v>
       </c>
       <c r="T129">
         <v>2726</v>
       </c>
       <c r="U129">
+        <v>2726</v>
+      </c>
+      <c r="V129">
         <v>4611</v>
       </c>
-      <c r="V129">
-        <v>5627</v>
-      </c>
       <c r="W129">
-        <v>4565</v>
+        <v>4133</v>
       </c>
       <c r="X129">
-        <v>3831</v>
+        <v>4201</v>
       </c>
       <c r="Y129">
         <v>7658</v>
       </c>
       <c r="Z129">
+        <v>7658</v>
+      </c>
+      <c r="AA129">
         <v>6439</v>
       </c>
-      <c r="AA129">
-        <v>6050</v>
-      </c>
       <c r="AB129">
-        <v>10792</v>
+        <v>12451</v>
       </c>
       <c r="AC129">
-        <v>14349</v>
+        <v>15669</v>
       </c>
       <c r="AD129">
         <v>2723</v>
       </c>
       <c r="AE129">
+        <v>2723</v>
+      </c>
+      <c r="AF129">
         <v>3875</v>
       </c>
-      <c r="AF129">
-        <v>3562</v>
-      </c>
       <c r="AG129">
-        <v>8237</v>
+        <v>3958</v>
       </c>
       <c r="AH129">
-        <v>5073</v>
+        <v>5552</v>
       </c>
       <c r="AI129">
         <v>4559</v>
       </c>
       <c r="AJ129">
+        <v>4559</v>
+      </c>
+      <c r="AK129">
         <v>3510</v>
       </c>
-      <c r="AK129">
-        <v>4017</v>
-      </c>
       <c r="AL129">
-        <v>6546</v>
+        <v>4866</v>
       </c>
       <c r="AM129">
-        <v>5751</v>
+        <v>8053</v>
       </c>
     </row>
     <row r="130" spans="1:39">
       <c r="A130">
-        <v>7754</v>
+        <v>6264</v>
       </c>
       <c r="B130">
-        <v>58612</v>
+        <v>75367</v>
       </c>
       <c r="C130">
-        <v>3097</v>
+        <v>4583</v>
       </c>
       <c r="D130">
-        <v>3852</v>
+        <v>5424</v>
       </c>
       <c r="E130">
-        <v>6021</v>
+        <v>5400</v>
       </c>
       <c r="F130">
-        <v>9207</v>
+        <v>9220</v>
       </c>
       <c r="G130">
-        <v>201702</v>
+        <v>201703</v>
       </c>
       <c r="H130">
         <v>2017</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J130">
+        <v>7754</v>
+      </c>
+      <c r="K130">
+        <v>7754</v>
+      </c>
+      <c r="L130">
         <v>6554</v>
       </c>
-      <c r="K130">
-        <v>6554</v>
-      </c>
-      <c r="L130">
-        <v>8971</v>
-      </c>
       <c r="M130">
-        <v>9977</v>
+        <v>10677</v>
       </c>
       <c r="N130">
-        <v>9244</v>
+        <v>11577</v>
       </c>
       <c r="O130">
+        <v>58224</v>
+      </c>
+      <c r="P130">
+        <v>58612</v>
+      </c>
+      <c r="Q130">
         <v>40662</v>
       </c>
-      <c r="P130">
-        <v>40694</v>
-      </c>
-      <c r="Q130">
-        <v>66666</v>
-      </c>
       <c r="R130">
-        <v>69114</v>
+        <v>61826</v>
       </c>
       <c r="S130">
-        <v>79212</v>
+        <v>84843</v>
       </c>
       <c r="T130">
+        <v>3852</v>
+      </c>
+      <c r="U130">
+        <v>3852</v>
+      </c>
+      <c r="V130">
         <v>2726</v>
       </c>
-      <c r="U130">
-        <v>2726</v>
-      </c>
-      <c r="V130">
-        <v>4611</v>
-      </c>
       <c r="W130">
-        <v>4133</v>
+        <v>5627</v>
       </c>
       <c r="X130">
-        <v>4201</v>
+        <v>4582</v>
       </c>
       <c r="Y130">
+        <v>9207</v>
+      </c>
+      <c r="Z130">
+        <v>9207</v>
+      </c>
+      <c r="AA130">
         <v>7658</v>
       </c>
-      <c r="Z130">
-        <v>7658</v>
-      </c>
-      <c r="AA130">
-        <v>6439</v>
-      </c>
       <c r="AB130">
-        <v>12451</v>
+        <v>6050</v>
       </c>
       <c r="AC130">
-        <v>15669</v>
+        <v>9661</v>
       </c>
       <c r="AD130">
+        <v>3097</v>
+      </c>
+      <c r="AE130">
+        <v>3097</v>
+      </c>
+      <c r="AF130">
         <v>2723</v>
       </c>
-      <c r="AE130">
-        <v>2723</v>
-      </c>
-      <c r="AF130">
-        <v>3875</v>
-      </c>
       <c r="AG130">
-        <v>3958</v>
+        <v>3562</v>
       </c>
       <c r="AH130">
-        <v>5552</v>
+        <v>6933</v>
       </c>
       <c r="AI130">
+        <v>5668</v>
+      </c>
+      <c r="AJ130">
+        <v>6021</v>
+      </c>
+      <c r="AK130">
         <v>4559</v>
       </c>
-      <c r="AJ130">
-        <v>4559</v>
-      </c>
-      <c r="AK130">
-        <v>3510</v>
-      </c>
       <c r="AL130">
-        <v>4866</v>
+        <v>4017</v>
       </c>
       <c r="AM130">
-        <v>8053</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="131" spans="1:39">
       <c r="A131">
-        <v>7754</v>
+        <v>6228</v>
       </c>
       <c r="B131">
-        <v>58224</v>
+        <v>69499</v>
       </c>
       <c r="C131">
-        <v>3097</v>
+        <v>5392</v>
       </c>
       <c r="D131">
-        <v>3852</v>
+        <v>4455</v>
       </c>
       <c r="E131">
-        <v>5668</v>
+        <v>5189</v>
       </c>
       <c r="F131">
-        <v>9207</v>
+        <v>8826</v>
       </c>
       <c r="G131">
-        <v>201702</v>
+        <v>201704</v>
       </c>
       <c r="H131">
         <v>2017</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J131">
+        <v>6264</v>
+      </c>
+      <c r="K131">
+        <v>6264</v>
+      </c>
+      <c r="L131">
         <v>7754</v>
       </c>
-      <c r="K131">
+      <c r="M131">
         <v>6554</v>
       </c>
-      <c r="L131">
-        <v>6554</v>
-      </c>
-      <c r="M131">
-        <v>10952</v>
-      </c>
       <c r="N131">
-        <v>9243</v>
+        <v>6276</v>
       </c>
       <c r="O131">
-        <v>58612</v>
+        <v>75240</v>
       </c>
       <c r="P131">
-        <v>40662</v>
+        <v>75367</v>
       </c>
       <c r="Q131">
+        <v>58224</v>
+      </c>
+      <c r="R131">
         <v>40694</v>
       </c>
-      <c r="R131">
-        <v>69627</v>
-      </c>
       <c r="S131">
-        <v>85003</v>
+        <v>67001</v>
       </c>
       <c r="T131">
+        <v>5424</v>
+      </c>
+      <c r="U131">
+        <v>5424</v>
+      </c>
+      <c r="V131">
         <v>3852</v>
       </c>
-      <c r="U131">
+      <c r="W131">
         <v>2726</v>
       </c>
-      <c r="V131">
-        <v>2726</v>
-      </c>
-      <c r="W131">
-        <v>5774</v>
-      </c>
       <c r="X131">
-        <v>6460</v>
+        <v>2850</v>
       </c>
       <c r="Y131">
+        <v>9220</v>
+      </c>
+      <c r="Z131">
+        <v>9220</v>
+      </c>
+      <c r="AA131">
         <v>9207</v>
       </c>
-      <c r="Z131">
+      <c r="AB131">
         <v>7658</v>
       </c>
-      <c r="AA131">
-        <v>7658</v>
-      </c>
-      <c r="AB131">
-        <v>9359</v>
-      </c>
       <c r="AC131">
-        <v>13671</v>
+        <v>6754</v>
       </c>
       <c r="AD131">
+        <v>4583</v>
+      </c>
+      <c r="AE131">
+        <v>4583</v>
+      </c>
+      <c r="AF131">
         <v>3097</v>
       </c>
-      <c r="AE131">
+      <c r="AG131">
         <v>2723</v>
       </c>
-      <c r="AF131">
-        <v>2723</v>
-      </c>
-      <c r="AG131">
-        <v>3843</v>
-      </c>
       <c r="AH131">
-        <v>4708</v>
+        <v>4489</v>
       </c>
       <c r="AI131">
-        <v>6021</v>
+        <v>5400</v>
       </c>
       <c r="AJ131">
+        <v>5400</v>
+      </c>
+      <c r="AK131">
+        <v>5668</v>
+      </c>
+      <c r="AL131">
         <v>4559</v>
       </c>
-      <c r="AK131">
-        <v>4559</v>
-      </c>
-      <c r="AL131">
-        <v>5982</v>
-      </c>
       <c r="AM131">
-        <v>8240</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="132" spans="1:39">
       <c r="A132">
-        <v>6264</v>
+        <v>8058</v>
       </c>
       <c r="B132">
-        <v>75367</v>
+        <v>88383</v>
       </c>
       <c r="C132">
-        <v>4583</v>
+        <v>5890</v>
       </c>
       <c r="D132">
-        <v>5424</v>
+        <v>4612</v>
       </c>
       <c r="E132">
-        <v>5400</v>
+        <v>6806</v>
       </c>
       <c r="F132">
-        <v>9220</v>
+        <v>12734</v>
       </c>
       <c r="G132">
-        <v>201703</v>
+        <v>201705</v>
       </c>
       <c r="H132">
         <v>2017</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J132">
+        <v>6228</v>
+      </c>
+      <c r="K132">
+        <v>6228</v>
+      </c>
+      <c r="L132">
+        <v>6264</v>
+      </c>
+      <c r="M132">
         <v>7754</v>
       </c>
-      <c r="K132">
-        <v>7754</v>
-      </c>
-      <c r="L132">
-        <v>6554</v>
-      </c>
-      <c r="M132">
-        <v>10677</v>
-      </c>
       <c r="N132">
-        <v>11577</v>
+        <v>9977</v>
       </c>
       <c r="O132">
-        <v>58224</v>
+        <v>69554</v>
       </c>
       <c r="P132">
+        <v>69499</v>
+      </c>
+      <c r="Q132">
+        <v>75240</v>
+      </c>
+      <c r="R132">
         <v>58612</v>
       </c>
-      <c r="Q132">
-        <v>40662</v>
-      </c>
-      <c r="R132">
-        <v>61826</v>
-      </c>
       <c r="S132">
-        <v>84843</v>
+        <v>69114</v>
       </c>
       <c r="T132">
+        <v>4455</v>
+      </c>
+      <c r="U132">
+        <v>4455</v>
+      </c>
+      <c r="V132">
+        <v>5424</v>
+      </c>
+      <c r="W132">
         <v>3852</v>
       </c>
-      <c r="U132">
-        <v>3852</v>
-      </c>
-      <c r="V132">
-        <v>2726</v>
-      </c>
-      <c r="W132">
-        <v>5627</v>
-      </c>
       <c r="X132">
-        <v>4582</v>
+        <v>4133</v>
       </c>
       <c r="Y132">
+        <v>8826</v>
+      </c>
+      <c r="Z132">
+        <v>8826</v>
+      </c>
+      <c r="AA132">
+        <v>9220</v>
+      </c>
+      <c r="AB132">
         <v>9207</v>
       </c>
-      <c r="Z132">
-        <v>9207</v>
-      </c>
-      <c r="AA132">
-        <v>7658</v>
-      </c>
-      <c r="AB132">
-        <v>6050</v>
-      </c>
       <c r="AC132">
-        <v>9661</v>
+        <v>12451</v>
       </c>
       <c r="AD132">
+        <v>5392</v>
+      </c>
+      <c r="AE132">
+        <v>5392</v>
+      </c>
+      <c r="AF132">
+        <v>4583</v>
+      </c>
+      <c r="AG132">
         <v>3097</v>
       </c>
-      <c r="AE132">
-        <v>3097</v>
-      </c>
-      <c r="AF132">
-        <v>2723</v>
-      </c>
-      <c r="AG132">
-        <v>3562</v>
-      </c>
       <c r="AH132">
-        <v>6933</v>
+        <v>3958</v>
       </c>
       <c r="AI132">
-        <v>5668</v>
+        <v>5189</v>
       </c>
       <c r="AJ132">
+        <v>5189</v>
+      </c>
+      <c r="AK132">
+        <v>5400</v>
+      </c>
+      <c r="AL132">
         <v>6021</v>
       </c>
-      <c r="AK132">
-        <v>4559</v>
-      </c>
-      <c r="AL132">
-        <v>4017</v>
-      </c>
       <c r="AM132">
-        <v>8035</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="133" spans="1:39">
       <c r="A133">
-        <v>6264</v>
+        <v>10765</v>
       </c>
       <c r="B133">
-        <v>75240</v>
+        <v>89084</v>
       </c>
       <c r="C133">
-        <v>4583</v>
+        <v>7012</v>
       </c>
       <c r="D133">
-        <v>5424</v>
+        <v>6670</v>
       </c>
       <c r="E133">
-        <v>5400</v>
+        <v>7589</v>
       </c>
       <c r="F133">
-        <v>9220</v>
+        <v>8682</v>
       </c>
       <c r="G133">
-        <v>201703</v>
+        <v>201706</v>
       </c>
       <c r="H133">
         <v>2017</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J133">
+        <v>8058</v>
+      </c>
+      <c r="K133">
+        <v>8058</v>
+      </c>
+      <c r="L133">
+        <v>6228</v>
+      </c>
+      <c r="M133">
         <v>6264</v>
       </c>
-      <c r="K133">
-        <v>7754</v>
-      </c>
-      <c r="L133">
-        <v>7754</v>
-      </c>
-      <c r="M133">
-        <v>8971</v>
-      </c>
       <c r="N133">
-        <v>11138</v>
+        <v>10677</v>
       </c>
       <c r="O133">
+        <v>88272</v>
+      </c>
+      <c r="P133">
+        <v>88383</v>
+      </c>
+      <c r="Q133">
+        <v>69554</v>
+      </c>
+      <c r="R133">
         <v>75367</v>
       </c>
-      <c r="P133">
-        <v>58224</v>
-      </c>
-      <c r="Q133">
-        <v>58612</v>
-      </c>
-      <c r="R133">
-        <v>66666</v>
-      </c>
       <c r="S133">
-        <v>99539</v>
+        <v>61826</v>
       </c>
       <c r="T133">
+        <v>4612</v>
+      </c>
+      <c r="U133">
+        <v>4612</v>
+      </c>
+      <c r="V133">
+        <v>4455</v>
+      </c>
+      <c r="W133">
         <v>5424</v>
       </c>
-      <c r="U133">
-        <v>3852</v>
-      </c>
-      <c r="V133">
-        <v>3852</v>
-      </c>
-      <c r="W133">
-        <v>4611</v>
-      </c>
       <c r="X133">
-        <v>6562</v>
+        <v>5627</v>
       </c>
       <c r="Y133">
+        <v>12734</v>
+      </c>
+      <c r="Z133">
+        <v>12734</v>
+      </c>
+      <c r="AA133">
+        <v>8826</v>
+      </c>
+      <c r="AB133">
         <v>9220</v>
       </c>
-      <c r="Z133">
-        <v>9207</v>
-      </c>
-      <c r="AA133">
-        <v>9207</v>
-      </c>
-      <c r="AB133">
-        <v>6439</v>
-      </c>
       <c r="AC133">
-        <v>9549</v>
+        <v>6050</v>
       </c>
       <c r="AD133">
+        <v>5890</v>
+      </c>
+      <c r="AE133">
+        <v>5890</v>
+      </c>
+      <c r="AF133">
+        <v>5392</v>
+      </c>
+      <c r="AG133">
         <v>4583</v>
       </c>
-      <c r="AE133">
-        <v>3097</v>
-      </c>
-      <c r="AF133">
-        <v>3097</v>
-      </c>
-      <c r="AG133">
-        <v>3875</v>
-      </c>
       <c r="AH133">
-        <v>7890</v>
+        <v>3562</v>
       </c>
       <c r="AI133">
+        <v>6806</v>
+      </c>
+      <c r="AJ133">
+        <v>6806</v>
+      </c>
+      <c r="AK133">
+        <v>5189</v>
+      </c>
+      <c r="AL133">
         <v>5400</v>
       </c>
-      <c r="AJ133">
-        <v>5668</v>
-      </c>
-      <c r="AK133">
-        <v>6021</v>
-      </c>
-      <c r="AL133">
-        <v>3510</v>
-      </c>
       <c r="AM133">
-        <v>7552</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="134" spans="1:39">
       <c r="A134">
-        <v>6228</v>
+        <v>8186</v>
       </c>
       <c r="B134">
-        <v>69499</v>
+        <v>85128</v>
       </c>
       <c r="C134">
-        <v>5392</v>
+        <v>6235</v>
       </c>
       <c r="D134">
-        <v>4455</v>
+        <v>3273</v>
       </c>
       <c r="E134">
-        <v>5189</v>
+        <v>8947</v>
       </c>
       <c r="F134">
-        <v>8826</v>
+        <v>9178</v>
       </c>
       <c r="G134">
-        <v>201704</v>
+        <v>201707</v>
       </c>
       <c r="H134">
         <v>2017</v>
       </c>
       <c r="I134">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J134">
-        <v>6264</v>
+        <v>10745</v>
       </c>
       <c r="K134">
-        <v>6264</v>
+        <v>10765</v>
       </c>
       <c r="L134">
-        <v>7754</v>
+        <v>8058</v>
       </c>
       <c r="M134">
+        <v>6228</v>
+      </c>
+      <c r="N134">
         <v>6554</v>
       </c>
-      <c r="N134">
-        <v>6276</v>
-      </c>
       <c r="O134">
-        <v>75240</v>
+        <v>87453</v>
       </c>
       <c r="P134">
-        <v>75367</v>
+        <v>89084</v>
       </c>
       <c r="Q134">
-        <v>58224</v>
+        <v>88272</v>
       </c>
       <c r="R134">
+        <v>69499</v>
+      </c>
+      <c r="S134">
         <v>40694</v>
       </c>
-      <c r="S134">
-        <v>67001</v>
-      </c>
       <c r="T134">
-        <v>5424</v>
+        <v>6670</v>
       </c>
       <c r="U134">
-        <v>5424</v>
+        <v>6670</v>
       </c>
       <c r="V134">
-        <v>3852</v>
+        <v>4612</v>
       </c>
       <c r="W134">
+        <v>4455</v>
+      </c>
+      <c r="X134">
         <v>2726</v>
       </c>
-      <c r="X134">
-        <v>2850</v>
-      </c>
       <c r="Y134">
-        <v>9220</v>
+        <v>8665</v>
       </c>
       <c r="Z134">
-        <v>9220</v>
+        <v>8682</v>
       </c>
       <c r="AA134">
-        <v>9207</v>
+        <v>12734</v>
       </c>
       <c r="AB134">
+        <v>8826</v>
+      </c>
+      <c r="AC134">
         <v>7658</v>
       </c>
-      <c r="AC134">
-        <v>6754</v>
-      </c>
       <c r="AD134">
-        <v>4583</v>
+        <v>7012</v>
       </c>
       <c r="AE134">
-        <v>4583</v>
+        <v>7012</v>
       </c>
       <c r="AF134">
-        <v>3097</v>
+        <v>5890</v>
       </c>
       <c r="AG134">
+        <v>5392</v>
+      </c>
+      <c r="AH134">
         <v>2723</v>
       </c>
-      <c r="AH134">
-        <v>4489</v>
-      </c>
       <c r="AI134">
-        <v>5400</v>
+        <v>7568</v>
       </c>
       <c r="AJ134">
-        <v>5400</v>
+        <v>7589</v>
       </c>
       <c r="AK134">
-        <v>5668</v>
+        <v>6806</v>
       </c>
       <c r="AL134">
+        <v>5189</v>
+      </c>
+      <c r="AM134">
         <v>4559</v>
-      </c>
-      <c r="AM134">
-        <v>4576</v>
       </c>
     </row>
     <row r="135" spans="1:39">
       <c r="A135">
-        <v>6228</v>
+        <v>14531</v>
       </c>
       <c r="B135">
-        <v>69554</v>
+        <v>101723</v>
       </c>
       <c r="C135">
-        <v>5392</v>
+        <v>5684</v>
       </c>
       <c r="D135">
-        <v>4455</v>
+        <v>3577</v>
       </c>
       <c r="E135">
-        <v>5189</v>
+        <v>11142</v>
       </c>
       <c r="F135">
-        <v>8826</v>
+        <v>13066</v>
       </c>
       <c r="G135">
-        <v>201704</v>
+        <v>201708</v>
       </c>
       <c r="H135">
         <v>2017</v>
       </c>
       <c r="I135">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J135">
-        <v>6228</v>
+        <v>8186</v>
       </c>
       <c r="K135">
-        <v>6264</v>
+        <v>8186</v>
       </c>
       <c r="L135">
-        <v>6264</v>
+        <v>10745</v>
       </c>
       <c r="M135">
-        <v>6554</v>
+        <v>8058</v>
       </c>
       <c r="N135">
-        <v>13450</v>
+        <v>7754</v>
       </c>
       <c r="O135">
-        <v>69499</v>
+        <v>84924</v>
       </c>
       <c r="P135">
-        <v>75240</v>
+        <v>85128</v>
       </c>
       <c r="Q135">
-        <v>75367</v>
+        <v>87453</v>
       </c>
       <c r="R135">
-        <v>40662</v>
+        <v>88383</v>
       </c>
       <c r="S135">
-        <v>93711</v>
+        <v>58612</v>
       </c>
       <c r="T135">
-        <v>4455</v>
+        <v>3273</v>
       </c>
       <c r="U135">
-        <v>5424</v>
+        <v>3273</v>
       </c>
       <c r="V135">
-        <v>5424</v>
+        <v>6670</v>
       </c>
       <c r="W135">
-        <v>2726</v>
+        <v>4612</v>
       </c>
       <c r="X135">
-        <v>4565</v>
+        <v>3852</v>
       </c>
       <c r="Y135">
-        <v>8826</v>
+        <v>9178</v>
       </c>
       <c r="Z135">
-        <v>9220</v>
+        <v>9178</v>
       </c>
       <c r="AA135">
-        <v>9220</v>
+        <v>8665</v>
       </c>
       <c r="AB135">
-        <v>7658</v>
+        <v>12734</v>
       </c>
       <c r="AC135">
-        <v>10792</v>
+        <v>9207</v>
       </c>
       <c r="AD135">
-        <v>5392</v>
+        <v>6235</v>
       </c>
       <c r="AE135">
-        <v>4583</v>
+        <v>6235</v>
       </c>
       <c r="AF135">
-        <v>4583</v>
+        <v>7012</v>
       </c>
       <c r="AG135">
-        <v>2723</v>
+        <v>5890</v>
       </c>
       <c r="AH135">
-        <v>8237</v>
+        <v>3097</v>
       </c>
       <c r="AI135">
-        <v>5189</v>
+        <v>8954</v>
       </c>
       <c r="AJ135">
-        <v>5400</v>
+        <v>8947</v>
       </c>
       <c r="AK135">
-        <v>5400</v>
+        <v>7568</v>
       </c>
       <c r="AL135">
-        <v>4559</v>
+        <v>6806</v>
       </c>
       <c r="AM135">
-        <v>6546</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="136" spans="1:39">
       <c r="A136">
-        <v>8058</v>
+        <v>10606</v>
       </c>
       <c r="B136">
-        <v>88383</v>
+        <v>72268</v>
       </c>
       <c r="C136">
-        <v>5890</v>
+        <v>4351</v>
       </c>
       <c r="D136">
-        <v>4612</v>
+        <v>4746</v>
       </c>
       <c r="E136">
-        <v>6806</v>
+        <v>7295</v>
       </c>
       <c r="F136">
-        <v>12734</v>
+        <v>12954</v>
       </c>
       <c r="G136">
-        <v>201705</v>
+        <v>201709</v>
       </c>
       <c r="H136">
         <v>2017</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J136">
-        <v>6228</v>
+        <v>14531</v>
       </c>
       <c r="K136">
-        <v>6228</v>
+        <v>14531</v>
       </c>
       <c r="L136">
+        <v>8186</v>
+      </c>
+      <c r="M136">
+        <v>10765</v>
+      </c>
+      <c r="N136">
         <v>6264</v>
       </c>
-      <c r="M136">
-        <v>7754</v>
-      </c>
-      <c r="N136">
-        <v>9977</v>
-      </c>
       <c r="O136">
-        <v>69554</v>
+        <v>101747</v>
       </c>
       <c r="P136">
-        <v>69499</v>
+        <v>101723</v>
       </c>
       <c r="Q136">
-        <v>75240</v>
+        <v>84924</v>
       </c>
       <c r="R136">
-        <v>58612</v>
+        <v>89084</v>
       </c>
       <c r="S136">
-        <v>69114</v>
+        <v>75367</v>
       </c>
       <c r="T136">
-        <v>4455</v>
+        <v>3577</v>
       </c>
       <c r="U136">
-        <v>4455</v>
+        <v>3577</v>
       </c>
       <c r="V136">
+        <v>3273</v>
+      </c>
+      <c r="W136">
+        <v>6670</v>
+      </c>
+      <c r="X136">
         <v>5424</v>
       </c>
-      <c r="W136">
-        <v>3852</v>
-      </c>
-      <c r="X136">
-        <v>4133</v>
-      </c>
       <c r="Y136">
-        <v>8826</v>
+        <v>13066</v>
       </c>
       <c r="Z136">
-        <v>8826</v>
+        <v>13066</v>
       </c>
       <c r="AA136">
+        <v>9178</v>
+      </c>
+      <c r="AB136">
+        <v>8682</v>
+      </c>
+      <c r="AC136">
         <v>9220</v>
       </c>
-      <c r="AB136">
-        <v>9207</v>
-      </c>
-      <c r="AC136">
-        <v>12451</v>
-      </c>
       <c r="AD136">
-        <v>5392</v>
+        <v>5684</v>
       </c>
       <c r="AE136">
-        <v>5392</v>
+        <v>5684</v>
       </c>
       <c r="AF136">
+        <v>6235</v>
+      </c>
+      <c r="AG136">
+        <v>7012</v>
+      </c>
+      <c r="AH136">
         <v>4583</v>
       </c>
-      <c r="AG136">
-        <v>3097</v>
-      </c>
-      <c r="AH136">
-        <v>3958</v>
-      </c>
       <c r="AI136">
-        <v>5189</v>
+        <v>11142</v>
       </c>
       <c r="AJ136">
-        <v>5189</v>
+        <v>11142</v>
       </c>
       <c r="AK136">
+        <v>8954</v>
+      </c>
+      <c r="AL136">
+        <v>7589</v>
+      </c>
+      <c r="AM136">
         <v>5400</v>
-      </c>
-      <c r="AL136">
-        <v>6021</v>
-      </c>
-      <c r="AM136">
-        <v>4866</v>
       </c>
     </row>
     <row r="137" spans="1:39">
       <c r="A137">
-        <v>8058</v>
+        <v>13107</v>
       </c>
       <c r="B137">
-        <v>88272</v>
+        <v>84833</v>
       </c>
       <c r="C137">
-        <v>5890</v>
+        <v>4611</v>
       </c>
       <c r="D137">
-        <v>4612</v>
+        <v>4733</v>
       </c>
       <c r="E137">
-        <v>6806</v>
+        <v>7519</v>
       </c>
       <c r="F137">
-        <v>12734</v>
+        <v>15676</v>
       </c>
       <c r="G137">
-        <v>201705</v>
+        <v>201710</v>
       </c>
       <c r="H137">
         <v>2017</v>
       </c>
       <c r="I137">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J137">
-        <v>8058</v>
+        <v>10606</v>
       </c>
       <c r="K137">
-        <v>6228</v>
+        <v>14531</v>
       </c>
       <c r="L137">
-        <v>6228</v>
+        <v>14531</v>
       </c>
       <c r="M137">
-        <v>7754</v>
+        <v>10745</v>
       </c>
       <c r="N137">
-        <v>10952</v>
+        <v>6264</v>
       </c>
       <c r="O137">
-        <v>88383</v>
+        <v>72268</v>
       </c>
       <c r="P137">
-        <v>69554</v>
+        <v>101747</v>
       </c>
       <c r="Q137">
-        <v>69499</v>
+        <v>101723</v>
       </c>
       <c r="R137">
-        <v>58224</v>
+        <v>87453</v>
       </c>
       <c r="S137">
-        <v>69627</v>
+        <v>75240</v>
       </c>
       <c r="T137">
-        <v>4612</v>
+        <v>4746</v>
       </c>
       <c r="U137">
-        <v>4455</v>
+        <v>3577</v>
       </c>
       <c r="V137">
-        <v>4455</v>
+        <v>3577</v>
       </c>
       <c r="W137">
-        <v>3852</v>
+        <v>6670</v>
       </c>
       <c r="X137">
-        <v>5774</v>
+        <v>5424</v>
       </c>
       <c r="Y137">
-        <v>12734</v>
+        <v>12954</v>
       </c>
       <c r="Z137">
-        <v>8826</v>
+        <v>13066</v>
       </c>
       <c r="AA137">
-        <v>8826</v>
+        <v>13066</v>
       </c>
       <c r="AB137">
-        <v>9207</v>
+        <v>8665</v>
       </c>
       <c r="AC137">
-        <v>9359</v>
+        <v>9220</v>
       </c>
       <c r="AD137">
-        <v>5890</v>
+        <v>4351</v>
       </c>
       <c r="AE137">
-        <v>5392</v>
+        <v>5684</v>
       </c>
       <c r="AF137">
-        <v>5392</v>
+        <v>5684</v>
       </c>
       <c r="AG137">
-        <v>3097</v>
+        <v>7012</v>
       </c>
       <c r="AH137">
-        <v>3843</v>
+        <v>4583</v>
       </c>
       <c r="AI137">
-        <v>6806</v>
+        <v>7295</v>
       </c>
       <c r="AJ137">
-        <v>5189</v>
+        <v>11142</v>
       </c>
       <c r="AK137">
-        <v>5189</v>
+        <v>11142</v>
       </c>
       <c r="AL137">
-        <v>5668</v>
+        <v>7568</v>
       </c>
       <c r="AM137">
-        <v>5982</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="138" spans="1:39">
       <c r="A138">
-        <v>10765</v>
+        <v>7683</v>
       </c>
       <c r="B138">
-        <v>89084</v>
+        <v>74945</v>
       </c>
       <c r="C138">
-        <v>7012</v>
+        <v>4026</v>
       </c>
       <c r="D138">
-        <v>6670</v>
+        <v>9126</v>
       </c>
       <c r="E138">
-        <v>7589</v>
+        <v>4961</v>
       </c>
       <c r="F138">
-        <v>8682</v>
+        <v>11999</v>
       </c>
       <c r="G138">
-        <v>201706</v>
+        <v>201711</v>
       </c>
       <c r="H138">
         <v>2017</v>
       </c>
       <c r="I138">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J138">
-        <v>8058</v>
+        <v>13107</v>
       </c>
       <c r="K138">
-        <v>8058</v>
+        <v>10606</v>
       </c>
       <c r="L138">
+        <v>14531</v>
+      </c>
+      <c r="M138">
+        <v>8186</v>
+      </c>
+      <c r="N138">
         <v>6228</v>
       </c>
-      <c r="M138">
-        <v>6264</v>
-      </c>
-      <c r="N138">
-        <v>10677</v>
-      </c>
       <c r="O138">
-        <v>88272</v>
+        <v>84833</v>
       </c>
       <c r="P138">
-        <v>88383</v>
+        <v>72268</v>
       </c>
       <c r="Q138">
-        <v>69554</v>
+        <v>101747</v>
       </c>
       <c r="R138">
-        <v>75367</v>
+        <v>85128</v>
       </c>
       <c r="S138">
-        <v>61826</v>
+        <v>69499</v>
       </c>
       <c r="T138">
-        <v>4612</v>
+        <v>4733</v>
       </c>
       <c r="U138">
-        <v>4612</v>
+        <v>4746</v>
       </c>
       <c r="V138">
+        <v>3577</v>
+      </c>
+      <c r="W138">
+        <v>3273</v>
+      </c>
+      <c r="X138">
         <v>4455</v>
       </c>
-      <c r="W138">
-        <v>5424</v>
-      </c>
-      <c r="X138">
-        <v>5627</v>
-      </c>
       <c r="Y138">
-        <v>12734</v>
+        <v>15676</v>
       </c>
       <c r="Z138">
-        <v>12734</v>
+        <v>12954</v>
       </c>
       <c r="AA138">
+        <v>13066</v>
+      </c>
+      <c r="AB138">
+        <v>9178</v>
+      </c>
+      <c r="AC138">
         <v>8826</v>
       </c>
-      <c r="AB138">
-        <v>9220</v>
-      </c>
-      <c r="AC138">
-        <v>6050</v>
-      </c>
       <c r="AD138">
-        <v>5890</v>
+        <v>4611</v>
       </c>
       <c r="AE138">
-        <v>5890</v>
+        <v>4351</v>
       </c>
       <c r="AF138">
+        <v>5684</v>
+      </c>
+      <c r="AG138">
+        <v>6235</v>
+      </c>
+      <c r="AH138">
         <v>5392</v>
       </c>
-      <c r="AG138">
-        <v>4583</v>
-      </c>
-      <c r="AH138">
-        <v>3562</v>
-      </c>
       <c r="AI138">
-        <v>6806</v>
+        <v>7519</v>
       </c>
       <c r="AJ138">
-        <v>6806</v>
+        <v>7295</v>
       </c>
       <c r="AK138">
+        <v>11142</v>
+      </c>
+      <c r="AL138">
+        <v>8947</v>
+      </c>
+      <c r="AM138">
         <v>5189</v>
-      </c>
-      <c r="AL138">
-        <v>5400</v>
-      </c>
-      <c r="AM138">
-        <v>4017</v>
       </c>
     </row>
     <row r="139" spans="1:39">
       <c r="A139">
-        <v>10745</v>
+        <v>7865</v>
       </c>
       <c r="B139">
-        <v>87453</v>
+        <v>78976</v>
       </c>
       <c r="C139">
-        <v>7012</v>
+        <v>4861</v>
       </c>
       <c r="D139">
-        <v>6670</v>
+        <v>8774</v>
       </c>
       <c r="E139">
-        <v>7568</v>
+        <v>5405</v>
       </c>
       <c r="F139">
-        <v>8665</v>
+        <v>11721</v>
       </c>
       <c r="G139">
-        <v>201706</v>
+        <v>201712</v>
       </c>
       <c r="H139">
         <v>2017</v>
       </c>
       <c r="I139">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J139">
-        <v>10765</v>
+        <v>7683</v>
       </c>
       <c r="K139">
-        <v>8058</v>
+        <v>13107</v>
       </c>
       <c r="L139">
-        <v>8058</v>
+        <v>10606</v>
       </c>
       <c r="M139">
-        <v>6264</v>
+        <v>8186</v>
       </c>
       <c r="N139">
-        <v>8971</v>
+        <v>6228</v>
       </c>
       <c r="O139">
-        <v>89084</v>
+        <v>74945</v>
       </c>
       <c r="P139">
-        <v>88272</v>
+        <v>84833</v>
       </c>
       <c r="Q139">
-        <v>88383</v>
+        <v>72268</v>
       </c>
       <c r="R139">
-        <v>75240</v>
+        <v>84924</v>
       </c>
       <c r="S139">
-        <v>66666</v>
+        <v>69554</v>
       </c>
       <c r="T139">
-        <v>6670</v>
+        <v>9126</v>
       </c>
       <c r="U139">
-        <v>4612</v>
+        <v>4733</v>
       </c>
       <c r="V139">
-        <v>4612</v>
+        <v>4746</v>
       </c>
       <c r="W139">
-        <v>5424</v>
+        <v>3273</v>
       </c>
       <c r="X139">
+        <v>4455</v>
+      </c>
+      <c r="Y139">
+        <v>11999</v>
+      </c>
+      <c r="Z139">
+        <v>15676</v>
+      </c>
+      <c r="AA139">
+        <v>12954</v>
+      </c>
+      <c r="AB139">
+        <v>9178</v>
+      </c>
+      <c r="AC139">
+        <v>8826</v>
+      </c>
+      <c r="AD139">
+        <v>4026</v>
+      </c>
+      <c r="AE139">
         <v>4611</v>
       </c>
-      <c r="Y139">
-        <v>8682</v>
-      </c>
-      <c r="Z139">
-        <v>12734</v>
-      </c>
-      <c r="AA139">
-        <v>12734</v>
-      </c>
-      <c r="AB139">
-        <v>9220</v>
-      </c>
-      <c r="AC139">
-        <v>6439</v>
-      </c>
-      <c r="AD139">
-        <v>7012</v>
-      </c>
-      <c r="AE139">
-        <v>5890</v>
-      </c>
       <c r="AF139">
-        <v>5890</v>
+        <v>4351</v>
       </c>
       <c r="AG139">
-        <v>4583</v>
+        <v>6235</v>
       </c>
       <c r="AH139">
-        <v>3875</v>
+        <v>5392</v>
       </c>
       <c r="AI139">
-        <v>7589</v>
+        <v>4961</v>
       </c>
       <c r="AJ139">
-        <v>6806</v>
+        <v>7519</v>
       </c>
       <c r="AK139">
-        <v>6806</v>
+        <v>7295</v>
       </c>
       <c r="AL139">
-        <v>5400</v>
+        <v>8954</v>
       </c>
       <c r="AM139">
-        <v>3510</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="140" spans="1:39">
       <c r="A140">
-        <v>8186</v>
+        <v>6044</v>
       </c>
       <c r="B140">
-        <v>85128</v>
+        <v>55082</v>
       </c>
       <c r="C140">
-        <v>6235</v>
+        <v>3598</v>
       </c>
       <c r="D140">
-        <v>3273</v>
+        <v>5138</v>
       </c>
       <c r="E140">
-        <v>8947</v>
+        <v>5922</v>
       </c>
       <c r="F140">
-        <v>9178</v>
+        <v>10888</v>
       </c>
       <c r="G140">
-        <v>201707</v>
+        <v>201801</v>
       </c>
       <c r="H140">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>10745</v>
+        <v>7865</v>
       </c>
       <c r="K140">
-        <v>10765</v>
+        <v>7683</v>
       </c>
       <c r="L140">
+        <v>13107</v>
+      </c>
+      <c r="M140">
+        <v>14531</v>
+      </c>
+      <c r="N140">
         <v>8058</v>
       </c>
-      <c r="M140">
-        <v>6228</v>
-      </c>
-      <c r="N140">
-        <v>6554</v>
-      </c>
       <c r="O140">
-        <v>87453</v>
+        <v>78976</v>
       </c>
       <c r="P140">
-        <v>89084</v>
+        <v>74945</v>
       </c>
       <c r="Q140">
-        <v>88272</v>
+        <v>84833</v>
       </c>
       <c r="R140">
-        <v>69499</v>
+        <v>101723</v>
       </c>
       <c r="S140">
-        <v>40694</v>
+        <v>88383</v>
       </c>
       <c r="T140">
-        <v>6670</v>
+        <v>8774</v>
       </c>
       <c r="U140">
-        <v>6670</v>
+        <v>9126</v>
       </c>
       <c r="V140">
+        <v>4733</v>
+      </c>
+      <c r="W140">
+        <v>3577</v>
+      </c>
+      <c r="X140">
         <v>4612</v>
       </c>
-      <c r="W140">
-        <v>4455</v>
-      </c>
-      <c r="X140">
-        <v>2726</v>
-      </c>
       <c r="Y140">
-        <v>8665</v>
+        <v>11721</v>
       </c>
       <c r="Z140">
-        <v>8682</v>
+        <v>11999</v>
       </c>
       <c r="AA140">
+        <v>15676</v>
+      </c>
+      <c r="AB140">
+        <v>13066</v>
+      </c>
+      <c r="AC140">
         <v>12734</v>
       </c>
-      <c r="AB140">
-        <v>8826</v>
-      </c>
-      <c r="AC140">
-        <v>7658</v>
-      </c>
       <c r="AD140">
-        <v>7012</v>
+        <v>4861</v>
       </c>
       <c r="AE140">
-        <v>7012</v>
+        <v>4026</v>
       </c>
       <c r="AF140">
+        <v>4611</v>
+      </c>
+      <c r="AG140">
+        <v>5684</v>
+      </c>
+      <c r="AH140">
         <v>5890</v>
       </c>
-      <c r="AG140">
-        <v>5392</v>
-      </c>
-      <c r="AH140">
-        <v>2723</v>
-      </c>
       <c r="AI140">
-        <v>7568</v>
+        <v>5405</v>
       </c>
       <c r="AJ140">
-        <v>7589</v>
+        <v>4961</v>
       </c>
       <c r="AK140">
+        <v>7519</v>
+      </c>
+      <c r="AL140">
+        <v>11142</v>
+      </c>
+      <c r="AM140">
         <v>6806</v>
-      </c>
-      <c r="AL140">
-        <v>5189</v>
-      </c>
-      <c r="AM140">
-        <v>4559</v>
       </c>
     </row>
     <row r="141" spans="1:39">
       <c r="A141">
-        <v>8186</v>
+        <v>7280</v>
       </c>
       <c r="B141">
-        <v>84924</v>
+        <v>74927</v>
       </c>
       <c r="C141">
-        <v>6235</v>
+        <v>3424</v>
       </c>
       <c r="D141">
-        <v>3273</v>
+        <v>5210</v>
       </c>
       <c r="E141">
-        <v>8954</v>
+        <v>7626</v>
       </c>
       <c r="F141">
-        <v>9178</v>
+        <v>17992</v>
       </c>
       <c r="G141">
-        <v>201707</v>
+        <v>201802</v>
       </c>
       <c r="H141">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I141">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J141">
-        <v>8186</v>
+        <v>6044</v>
       </c>
       <c r="K141">
-        <v>10745</v>
+        <v>7865</v>
       </c>
       <c r="L141">
-        <v>10765</v>
+        <v>7683</v>
       </c>
       <c r="M141">
-        <v>6228</v>
+        <v>14531</v>
       </c>
       <c r="N141">
-        <v>6554</v>
+        <v>8058</v>
       </c>
       <c r="O141">
-        <v>85128</v>
+        <v>55082</v>
       </c>
       <c r="P141">
-        <v>87453</v>
+        <v>78976</v>
       </c>
       <c r="Q141">
-        <v>89084</v>
+        <v>74945</v>
       </c>
       <c r="R141">
-        <v>69554</v>
+        <v>101747</v>
       </c>
       <c r="S141">
-        <v>40662</v>
+        <v>88272</v>
       </c>
       <c r="T141">
-        <v>3273</v>
+        <v>5138</v>
       </c>
       <c r="U141">
-        <v>6670</v>
+        <v>8774</v>
       </c>
       <c r="V141">
-        <v>6670</v>
+        <v>9126</v>
       </c>
       <c r="W141">
-        <v>4455</v>
+        <v>3577</v>
       </c>
       <c r="X141">
-        <v>2726</v>
+        <v>4612</v>
       </c>
       <c r="Y141">
-        <v>9178</v>
+        <v>10888</v>
       </c>
       <c r="Z141">
-        <v>8665</v>
+        <v>11721</v>
       </c>
       <c r="AA141">
-        <v>8682</v>
+        <v>11999</v>
       </c>
       <c r="AB141">
-        <v>8826</v>
+        <v>13066</v>
       </c>
       <c r="AC141">
-        <v>7658</v>
+        <v>12734</v>
       </c>
       <c r="AD141">
-        <v>6235</v>
+        <v>3598</v>
       </c>
       <c r="AE141">
-        <v>7012</v>
+        <v>4861</v>
       </c>
       <c r="AF141">
-        <v>7012</v>
+        <v>4026</v>
       </c>
       <c r="AG141">
-        <v>5392</v>
+        <v>5684</v>
       </c>
       <c r="AH141">
-        <v>2723</v>
+        <v>5890</v>
       </c>
       <c r="AI141">
-        <v>8947</v>
+        <v>5922</v>
       </c>
       <c r="AJ141">
-        <v>7568</v>
+        <v>5405</v>
       </c>
       <c r="AK141">
-        <v>7589</v>
+        <v>4961</v>
       </c>
       <c r="AL141">
-        <v>5189</v>
+        <v>11142</v>
       </c>
       <c r="AM141">
-        <v>4559</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="142" spans="1:39">
       <c r="A142">
-        <v>14531</v>
+        <v>6215</v>
       </c>
       <c r="B142">
-        <v>101723</v>
+        <v>87661</v>
       </c>
       <c r="C142">
-        <v>5684</v>
+        <v>5302</v>
       </c>
       <c r="D142">
-        <v>3577</v>
+        <v>6934</v>
       </c>
       <c r="E142">
-        <v>11142</v>
+        <v>6810</v>
       </c>
       <c r="F142">
-        <v>13066</v>
+        <v>13576</v>
       </c>
       <c r="G142">
-        <v>201708</v>
+        <v>201803</v>
       </c>
       <c r="H142">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I142">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J142">
-        <v>8186</v>
+        <v>7280</v>
       </c>
       <c r="K142">
-        <v>8186</v>
+        <v>6044</v>
       </c>
       <c r="L142">
-        <v>10745</v>
+        <v>7865</v>
       </c>
       <c r="M142">
-        <v>8058</v>
+        <v>10606</v>
       </c>
       <c r="N142">
-        <v>7754</v>
+        <v>10765</v>
       </c>
       <c r="O142">
-        <v>84924</v>
+        <v>74927</v>
       </c>
       <c r="P142">
-        <v>85128</v>
+        <v>55082</v>
       </c>
       <c r="Q142">
-        <v>87453</v>
+        <v>78976</v>
       </c>
       <c r="R142">
-        <v>88383</v>
+        <v>72268</v>
       </c>
       <c r="S142">
-        <v>58612</v>
+        <v>89084</v>
       </c>
       <c r="T142">
-        <v>3273</v>
+        <v>5210</v>
       </c>
       <c r="U142">
-        <v>3273</v>
+        <v>5138</v>
       </c>
       <c r="V142">
+        <v>8774</v>
+      </c>
+      <c r="W142">
+        <v>4746</v>
+      </c>
+      <c r="X142">
         <v>6670</v>
       </c>
-      <c r="W142">
-        <v>4612</v>
-      </c>
-      <c r="X142">
-        <v>3852</v>
-      </c>
       <c r="Y142">
-        <v>9178</v>
+        <v>17992</v>
       </c>
       <c r="Z142">
-        <v>9178</v>
+        <v>10888</v>
       </c>
       <c r="AA142">
-        <v>8665</v>
+        <v>11721</v>
       </c>
       <c r="AB142">
-        <v>12734</v>
+        <v>12954</v>
       </c>
       <c r="AC142">
-        <v>9207</v>
+        <v>8682</v>
       </c>
       <c r="AD142">
-        <v>6235</v>
+        <v>3424</v>
       </c>
       <c r="AE142">
-        <v>6235</v>
+        <v>3598</v>
       </c>
       <c r="AF142">
+        <v>4861</v>
+      </c>
+      <c r="AG142">
+        <v>4351</v>
+      </c>
+      <c r="AH142">
         <v>7012</v>
       </c>
-      <c r="AG142">
-        <v>5890</v>
-      </c>
-      <c r="AH142">
-        <v>3097</v>
-      </c>
       <c r="AI142">
-        <v>8954</v>
+        <v>7626</v>
       </c>
       <c r="AJ142">
-        <v>8947</v>
+        <v>5922</v>
       </c>
       <c r="AK142">
-        <v>7568</v>
+        <v>5405</v>
       </c>
       <c r="AL142">
-        <v>6806</v>
+        <v>7295</v>
       </c>
       <c r="AM142">
-        <v>6021</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="143" spans="1:39">
       <c r="A143">
-        <v>14531</v>
+        <v>7421</v>
       </c>
       <c r="B143">
-        <v>101747</v>
+        <v>82951</v>
       </c>
       <c r="C143">
-        <v>5684</v>
+        <v>5953</v>
       </c>
       <c r="D143">
-        <v>3577</v>
+        <v>7281</v>
       </c>
       <c r="E143">
-        <v>11142</v>
+        <v>5212</v>
       </c>
       <c r="F143">
-        <v>13066</v>
+        <v>9605</v>
       </c>
       <c r="G143">
-        <v>201708</v>
+        <v>201804</v>
       </c>
       <c r="H143">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I143">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J143">
-        <v>14531</v>
+        <v>6215</v>
       </c>
       <c r="K143">
-        <v>8186</v>
+        <v>7280</v>
       </c>
       <c r="L143">
-        <v>8186</v>
+        <v>6044</v>
       </c>
       <c r="M143">
-        <v>8058</v>
+        <v>13107</v>
       </c>
       <c r="N143">
-        <v>7754</v>
+        <v>10745</v>
       </c>
       <c r="O143">
-        <v>101723</v>
+        <v>87661</v>
       </c>
       <c r="P143">
-        <v>84924</v>
+        <v>74927</v>
       </c>
       <c r="Q143">
-        <v>85128</v>
+        <v>55082</v>
       </c>
       <c r="R143">
-        <v>88272</v>
+        <v>84833</v>
       </c>
       <c r="S143">
-        <v>58224</v>
+        <v>87453</v>
       </c>
       <c r="T143">
-        <v>3577</v>
+        <v>6934</v>
       </c>
       <c r="U143">
-        <v>3273</v>
+        <v>5210</v>
       </c>
       <c r="V143">
-        <v>3273</v>
+        <v>5138</v>
       </c>
       <c r="W143">
-        <v>4612</v>
+        <v>4733</v>
       </c>
       <c r="X143">
-        <v>3852</v>
+        <v>6670</v>
       </c>
       <c r="Y143">
-        <v>13066</v>
+        <v>13576</v>
       </c>
       <c r="Z143">
-        <v>9178</v>
+        <v>17992</v>
       </c>
       <c r="AA143">
-        <v>9178</v>
+        <v>10888</v>
       </c>
       <c r="AB143">
-        <v>12734</v>
+        <v>15676</v>
       </c>
       <c r="AC143">
-        <v>9207</v>
+        <v>8665</v>
       </c>
       <c r="AD143">
-        <v>5684</v>
+        <v>5302</v>
       </c>
       <c r="AE143">
-        <v>6235</v>
+        <v>3424</v>
       </c>
       <c r="AF143">
-        <v>6235</v>
+        <v>3598</v>
       </c>
       <c r="AG143">
-        <v>5890</v>
+        <v>4611</v>
       </c>
       <c r="AH143">
-        <v>3097</v>
+        <v>7012</v>
       </c>
       <c r="AI143">
-        <v>11142</v>
+        <v>6810</v>
       </c>
       <c r="AJ143">
-        <v>8954</v>
+        <v>7626</v>
       </c>
       <c r="AK143">
-        <v>8947</v>
+        <v>5922</v>
       </c>
       <c r="AL143">
-        <v>6806</v>
+        <v>7519</v>
       </c>
       <c r="AM143">
-        <v>5668</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="144" spans="1:39">
       <c r="A144">
-        <v>10606</v>
+        <v>11349</v>
       </c>
       <c r="B144">
-        <v>72268</v>
+        <v>91212</v>
       </c>
       <c r="C144">
-        <v>4351</v>
+        <v>7358</v>
       </c>
       <c r="D144">
-        <v>4746</v>
+        <v>5196</v>
       </c>
       <c r="E144">
-        <v>7295</v>
+        <v>6786</v>
       </c>
       <c r="F144">
-        <v>12954</v>
+        <v>8838</v>
       </c>
       <c r="G144">
-        <v>201709</v>
+        <v>201805</v>
       </c>
       <c r="H144">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I144">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J144">
-        <v>14531</v>
+        <v>7421</v>
       </c>
       <c r="K144">
-        <v>14531</v>
+        <v>6215</v>
       </c>
       <c r="L144">
+        <v>7280</v>
+      </c>
+      <c r="M144">
+        <v>7683</v>
+      </c>
+      <c r="N144">
         <v>8186</v>
       </c>
-      <c r="M144">
-        <v>10765</v>
-      </c>
-      <c r="N144">
-        <v>6264</v>
-      </c>
       <c r="O144">
-        <v>101747</v>
+        <v>82951</v>
       </c>
       <c r="P144">
-        <v>101723</v>
+        <v>87661</v>
       </c>
       <c r="Q144">
-        <v>84924</v>
+        <v>74927</v>
       </c>
       <c r="R144">
-        <v>89084</v>
+        <v>74945</v>
       </c>
       <c r="S144">
-        <v>75367</v>
+        <v>85128</v>
       </c>
       <c r="T144">
-        <v>3577</v>
+        <v>7281</v>
       </c>
       <c r="U144">
-        <v>3577</v>
+        <v>6934</v>
       </c>
       <c r="V144">
+        <v>5210</v>
+      </c>
+      <c r="W144">
+        <v>9126</v>
+      </c>
+      <c r="X144">
         <v>3273</v>
       </c>
-      <c r="W144">
-        <v>6670</v>
-      </c>
-      <c r="X144">
-        <v>5424</v>
-      </c>
       <c r="Y144">
-        <v>13066</v>
+        <v>9605</v>
       </c>
       <c r="Z144">
-        <v>13066</v>
+        <v>13576</v>
       </c>
       <c r="AA144">
+        <v>17992</v>
+      </c>
+      <c r="AB144">
+        <v>11999</v>
+      </c>
+      <c r="AC144">
         <v>9178</v>
       </c>
-      <c r="AB144">
-        <v>8682</v>
-      </c>
-      <c r="AC144">
-        <v>9220</v>
-      </c>
       <c r="AD144">
-        <v>5684</v>
+        <v>5953</v>
       </c>
       <c r="AE144">
-        <v>5684</v>
+        <v>5302</v>
       </c>
       <c r="AF144">
+        <v>3424</v>
+      </c>
+      <c r="AG144">
+        <v>4026</v>
+      </c>
+      <c r="AH144">
         <v>6235</v>
       </c>
-      <c r="AG144">
-        <v>7012</v>
-      </c>
-      <c r="AH144">
-        <v>4583</v>
-      </c>
       <c r="AI144">
-        <v>11142</v>
+        <v>5212</v>
       </c>
       <c r="AJ144">
-        <v>11142</v>
+        <v>6810</v>
       </c>
       <c r="AK144">
-        <v>8954</v>
+        <v>7626</v>
       </c>
       <c r="AL144">
-        <v>7589</v>
+        <v>4961</v>
       </c>
       <c r="AM144">
-        <v>5400</v>
+        <v>8947</v>
       </c>
     </row>
     <row r="145" spans="1:39">
       <c r="A145">
-        <v>13107</v>
+        <v>9479</v>
       </c>
       <c r="B145">
-        <v>84833</v>
+        <v>81531</v>
       </c>
       <c r="C145">
-        <v>4611</v>
+        <v>7578</v>
       </c>
       <c r="D145">
-        <v>4733</v>
+        <v>7573</v>
       </c>
       <c r="E145">
-        <v>7519</v>
+        <v>6832</v>
       </c>
       <c r="F145">
-        <v>15676</v>
+        <v>5830</v>
       </c>
       <c r="G145">
-        <v>201710</v>
+        <v>201806</v>
       </c>
       <c r="H145">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I145">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J145">
-        <v>10606</v>
+        <v>11349</v>
       </c>
       <c r="K145">
-        <v>14531</v>
+        <v>7421</v>
       </c>
       <c r="L145">
-        <v>14531</v>
+        <v>6215</v>
       </c>
       <c r="M145">
-        <v>10745</v>
+        <v>7865</v>
       </c>
       <c r="N145">
-        <v>6264</v>
+        <v>8186</v>
       </c>
       <c r="O145">
-        <v>72268</v>
+        <v>91212</v>
       </c>
       <c r="P145">
-        <v>101747</v>
+        <v>82951</v>
       </c>
       <c r="Q145">
-        <v>101723</v>
+        <v>87661</v>
       </c>
       <c r="R145">
-        <v>87453</v>
+        <v>78976</v>
       </c>
       <c r="S145">
-        <v>75240</v>
+        <v>84924</v>
       </c>
       <c r="T145">
-        <v>4746</v>
+        <v>5196</v>
       </c>
       <c r="U145">
-        <v>3577</v>
+        <v>7281</v>
       </c>
       <c r="V145">
-        <v>3577</v>
+        <v>6934</v>
       </c>
       <c r="W145">
-        <v>6670</v>
+        <v>8774</v>
       </c>
       <c r="X145">
-        <v>5424</v>
+        <v>3273</v>
       </c>
       <c r="Y145">
-        <v>12954</v>
+        <v>8838</v>
       </c>
       <c r="Z145">
-        <v>13066</v>
+        <v>9605</v>
       </c>
       <c r="AA145">
-        <v>13066</v>
+        <v>13576</v>
       </c>
       <c r="AB145">
-        <v>8665</v>
+        <v>11721</v>
       </c>
       <c r="AC145">
-        <v>9220</v>
+        <v>9178</v>
       </c>
       <c r="AD145">
-        <v>4351</v>
+        <v>7358</v>
       </c>
       <c r="AE145">
-        <v>5684</v>
+        <v>5953</v>
       </c>
       <c r="AF145">
-        <v>5684</v>
+        <v>5302</v>
       </c>
       <c r="AG145">
-        <v>7012</v>
+        <v>4861</v>
       </c>
       <c r="AH145">
-        <v>4583</v>
+        <v>6235</v>
       </c>
       <c r="AI145">
-        <v>7295</v>
+        <v>6786</v>
       </c>
       <c r="AJ145">
-        <v>11142</v>
+        <v>5212</v>
       </c>
       <c r="AK145">
-        <v>11142</v>
+        <v>6810</v>
       </c>
       <c r="AL145">
-        <v>7568</v>
+        <v>5405</v>
       </c>
       <c r="AM145">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="146" spans="1:39">
-      <c r="A146">
-        <v>7683</v>
-      </c>
-      <c r="B146">
-        <v>74945</v>
-      </c>
-      <c r="C146">
-        <v>4026</v>
-      </c>
-      <c r="D146">
-        <v>9126</v>
-      </c>
-      <c r="E146">
-        <v>4961</v>
-      </c>
-      <c r="F146">
-        <v>11999</v>
-      </c>
-      <c r="G146">
-        <v>201711</v>
-      </c>
-      <c r="H146">
-        <v>2017</v>
-      </c>
-      <c r="I146">
-        <v>11</v>
-      </c>
-      <c r="J146">
-        <v>13107</v>
-      </c>
-      <c r="K146">
-        <v>10606</v>
-      </c>
-      <c r="L146">
-        <v>14531</v>
-      </c>
-      <c r="M146">
-        <v>8186</v>
-      </c>
-      <c r="N146">
-        <v>6228</v>
-      </c>
-      <c r="O146">
-        <v>84833</v>
-      </c>
-      <c r="P146">
-        <v>72268</v>
-      </c>
-      <c r="Q146">
-        <v>101747</v>
-      </c>
-      <c r="R146">
-        <v>85128</v>
-      </c>
-      <c r="S146">
-        <v>69499</v>
-      </c>
-      <c r="T146">
-        <v>4733</v>
-      </c>
-      <c r="U146">
-        <v>4746</v>
-      </c>
-      <c r="V146">
-        <v>3577</v>
-      </c>
-      <c r="W146">
-        <v>3273</v>
-      </c>
-      <c r="X146">
-        <v>4455</v>
-      </c>
-      <c r="Y146">
-        <v>15676</v>
-      </c>
-      <c r="Z146">
-        <v>12954</v>
-      </c>
-      <c r="AA146">
-        <v>13066</v>
-      </c>
-      <c r="AB146">
-        <v>9178</v>
-      </c>
-      <c r="AC146">
-        <v>8826</v>
-      </c>
-      <c r="AD146">
-        <v>4611</v>
-      </c>
-      <c r="AE146">
-        <v>4351</v>
-      </c>
-      <c r="AF146">
-        <v>5684</v>
-      </c>
-      <c r="AG146">
-        <v>6235</v>
-      </c>
-      <c r="AH146">
-        <v>5392</v>
-      </c>
-      <c r="AI146">
-        <v>7519</v>
-      </c>
-      <c r="AJ146">
-        <v>7295</v>
-      </c>
-      <c r="AK146">
-        <v>11142</v>
-      </c>
-      <c r="AL146">
-        <v>8947</v>
-      </c>
-      <c r="AM146">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="147" spans="1:39">
-      <c r="A147">
-        <v>7865</v>
-      </c>
-      <c r="B147">
-        <v>78976</v>
-      </c>
-      <c r="C147">
-        <v>4861</v>
-      </c>
-      <c r="D147">
-        <v>8774</v>
-      </c>
-      <c r="E147">
-        <v>5405</v>
-      </c>
-      <c r="F147">
-        <v>11721</v>
-      </c>
-      <c r="G147">
-        <v>201712</v>
-      </c>
-      <c r="H147">
-        <v>2017</v>
-      </c>
-      <c r="I147">
-        <v>12</v>
-      </c>
-      <c r="J147">
-        <v>7683</v>
-      </c>
-      <c r="K147">
-        <v>13107</v>
-      </c>
-      <c r="L147">
-        <v>10606</v>
-      </c>
-      <c r="M147">
-        <v>8186</v>
-      </c>
-      <c r="N147">
-        <v>6228</v>
-      </c>
-      <c r="O147">
-        <v>74945</v>
-      </c>
-      <c r="P147">
-        <v>84833</v>
-      </c>
-      <c r="Q147">
-        <v>72268</v>
-      </c>
-      <c r="R147">
-        <v>84924</v>
-      </c>
-      <c r="S147">
-        <v>69554</v>
-      </c>
-      <c r="T147">
-        <v>9126</v>
-      </c>
-      <c r="U147">
-        <v>4733</v>
-      </c>
-      <c r="V147">
-        <v>4746</v>
-      </c>
-      <c r="W147">
-        <v>3273</v>
-      </c>
-      <c r="X147">
-        <v>4455</v>
-      </c>
-      <c r="Y147">
-        <v>11999</v>
-      </c>
-      <c r="Z147">
-        <v>15676</v>
-      </c>
-      <c r="AA147">
-        <v>12954</v>
-      </c>
-      <c r="AB147">
-        <v>9178</v>
-      </c>
-      <c r="AC147">
-        <v>8826</v>
-      </c>
-      <c r="AD147">
-        <v>4026</v>
-      </c>
-      <c r="AE147">
-        <v>4611</v>
-      </c>
-      <c r="AF147">
-        <v>4351</v>
-      </c>
-      <c r="AG147">
-        <v>6235</v>
-      </c>
-      <c r="AH147">
-        <v>5392</v>
-      </c>
-      <c r="AI147">
-        <v>4961</v>
-      </c>
-      <c r="AJ147">
-        <v>7519</v>
-      </c>
-      <c r="AK147">
-        <v>7295</v>
-      </c>
-      <c r="AL147">
-        <v>8954</v>
-      </c>
-      <c r="AM147">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:39">
-      <c r="A148">
-        <v>6044</v>
-      </c>
-      <c r="B148">
-        <v>55082</v>
-      </c>
-      <c r="C148">
-        <v>3598</v>
-      </c>
-      <c r="D148">
-        <v>5138</v>
-      </c>
-      <c r="E148">
-        <v>5922</v>
-      </c>
-      <c r="F148">
-        <v>10888</v>
-      </c>
-      <c r="G148">
-        <v>201801</v>
-      </c>
-      <c r="H148">
-        <v>2018</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>7865</v>
-      </c>
-      <c r="K148">
-        <v>7683</v>
-      </c>
-      <c r="L148">
-        <v>13107</v>
-      </c>
-      <c r="M148">
-        <v>14531</v>
-      </c>
-      <c r="N148">
-        <v>8058</v>
-      </c>
-      <c r="O148">
-        <v>78976</v>
-      </c>
-      <c r="P148">
-        <v>74945</v>
-      </c>
-      <c r="Q148">
-        <v>84833</v>
-      </c>
-      <c r="R148">
-        <v>101723</v>
-      </c>
-      <c r="S148">
-        <v>88383</v>
-      </c>
-      <c r="T148">
-        <v>8774</v>
-      </c>
-      <c r="U148">
-        <v>9126</v>
-      </c>
-      <c r="V148">
-        <v>4733</v>
-      </c>
-      <c r="W148">
-        <v>3577</v>
-      </c>
-      <c r="X148">
-        <v>4612</v>
-      </c>
-      <c r="Y148">
-        <v>11721</v>
-      </c>
-      <c r="Z148">
-        <v>11999</v>
-      </c>
-      <c r="AA148">
-        <v>15676</v>
-      </c>
-      <c r="AB148">
-        <v>13066</v>
-      </c>
-      <c r="AC148">
-        <v>12734</v>
-      </c>
-      <c r="AD148">
-        <v>4861</v>
-      </c>
-      <c r="AE148">
-        <v>4026</v>
-      </c>
-      <c r="AF148">
-        <v>4611</v>
-      </c>
-      <c r="AG148">
-        <v>5684</v>
-      </c>
-      <c r="AH148">
-        <v>5890</v>
-      </c>
-      <c r="AI148">
-        <v>5405</v>
-      </c>
-      <c r="AJ148">
-        <v>4961</v>
-      </c>
-      <c r="AK148">
-        <v>7519</v>
-      </c>
-      <c r="AL148">
-        <v>11142</v>
-      </c>
-      <c r="AM148">
-        <v>6806</v>
-      </c>
-    </row>
-    <row r="149" spans="1:39">
-      <c r="A149">
-        <v>7280</v>
-      </c>
-      <c r="B149">
-        <v>74927</v>
-      </c>
-      <c r="C149">
-        <v>3424</v>
-      </c>
-      <c r="D149">
-        <v>5210</v>
-      </c>
-      <c r="E149">
-        <v>7626</v>
-      </c>
-      <c r="F149">
-        <v>17992</v>
-      </c>
-      <c r="G149">
-        <v>201802</v>
-      </c>
-      <c r="H149">
-        <v>2018</v>
-      </c>
-      <c r="I149">
-        <v>2</v>
-      </c>
-      <c r="J149">
-        <v>6044</v>
-      </c>
-      <c r="K149">
-        <v>7865</v>
-      </c>
-      <c r="L149">
-        <v>7683</v>
-      </c>
-      <c r="M149">
-        <v>14531</v>
-      </c>
-      <c r="N149">
-        <v>8058</v>
-      </c>
-      <c r="O149">
-        <v>55082</v>
-      </c>
-      <c r="P149">
-        <v>78976</v>
-      </c>
-      <c r="Q149">
-        <v>74945</v>
-      </c>
-      <c r="R149">
-        <v>101747</v>
-      </c>
-      <c r="S149">
-        <v>88272</v>
-      </c>
-      <c r="T149">
-        <v>5138</v>
-      </c>
-      <c r="U149">
-        <v>8774</v>
-      </c>
-      <c r="V149">
-        <v>9126</v>
-      </c>
-      <c r="W149">
-        <v>3577</v>
-      </c>
-      <c r="X149">
-        <v>4612</v>
-      </c>
-      <c r="Y149">
-        <v>10888</v>
-      </c>
-      <c r="Z149">
-        <v>11721</v>
-      </c>
-      <c r="AA149">
-        <v>11999</v>
-      </c>
-      <c r="AB149">
-        <v>13066</v>
-      </c>
-      <c r="AC149">
-        <v>12734</v>
-      </c>
-      <c r="AD149">
-        <v>3598</v>
-      </c>
-      <c r="AE149">
-        <v>4861</v>
-      </c>
-      <c r="AF149">
-        <v>4026</v>
-      </c>
-      <c r="AG149">
-        <v>5684</v>
-      </c>
-      <c r="AH149">
-        <v>5890</v>
-      </c>
-      <c r="AI149">
-        <v>5922</v>
-      </c>
-      <c r="AJ149">
-        <v>5405</v>
-      </c>
-      <c r="AK149">
-        <v>4961</v>
-      </c>
-      <c r="AL149">
-        <v>11142</v>
-      </c>
-      <c r="AM149">
-        <v>6806</v>
-      </c>
-    </row>
-    <row r="150" spans="1:39">
-      <c r="A150">
-        <v>6215</v>
-      </c>
-      <c r="B150">
-        <v>87661</v>
-      </c>
-      <c r="C150">
-        <v>5302</v>
-      </c>
-      <c r="D150">
-        <v>6934</v>
-      </c>
-      <c r="E150">
-        <v>6810</v>
-      </c>
-      <c r="F150">
-        <v>13576</v>
-      </c>
-      <c r="G150">
-        <v>201803</v>
-      </c>
-      <c r="H150">
-        <v>2018</v>
-      </c>
-      <c r="I150">
-        <v>3</v>
-      </c>
-      <c r="J150">
-        <v>7280</v>
-      </c>
-      <c r="K150">
-        <v>6044</v>
-      </c>
-      <c r="L150">
-        <v>7865</v>
-      </c>
-      <c r="M150">
-        <v>10606</v>
-      </c>
-      <c r="N150">
-        <v>10765</v>
-      </c>
-      <c r="O150">
-        <v>74927</v>
-      </c>
-      <c r="P150">
-        <v>55082</v>
-      </c>
-      <c r="Q150">
-        <v>78976</v>
-      </c>
-      <c r="R150">
-        <v>72268</v>
-      </c>
-      <c r="S150">
-        <v>89084</v>
-      </c>
-      <c r="T150">
-        <v>5210</v>
-      </c>
-      <c r="U150">
-        <v>5138</v>
-      </c>
-      <c r="V150">
-        <v>8774</v>
-      </c>
-      <c r="W150">
-        <v>4746</v>
-      </c>
-      <c r="X150">
-        <v>6670</v>
-      </c>
-      <c r="Y150">
-        <v>17992</v>
-      </c>
-      <c r="Z150">
-        <v>10888</v>
-      </c>
-      <c r="AA150">
-        <v>11721</v>
-      </c>
-      <c r="AB150">
-        <v>12954</v>
-      </c>
-      <c r="AC150">
-        <v>8682</v>
-      </c>
-      <c r="AD150">
-        <v>3424</v>
-      </c>
-      <c r="AE150">
-        <v>3598</v>
-      </c>
-      <c r="AF150">
-        <v>4861</v>
-      </c>
-      <c r="AG150">
-        <v>4351</v>
-      </c>
-      <c r="AH150">
-        <v>7012</v>
-      </c>
-      <c r="AI150">
-        <v>7626</v>
-      </c>
-      <c r="AJ150">
-        <v>5922</v>
-      </c>
-      <c r="AK150">
-        <v>5405</v>
-      </c>
-      <c r="AL150">
-        <v>7295</v>
-      </c>
-      <c r="AM150">
-        <v>7589</v>
-      </c>
-    </row>
-    <row r="151" spans="1:39">
-      <c r="A151">
-        <v>7421</v>
-      </c>
-      <c r="B151">
-        <v>82951</v>
-      </c>
-      <c r="C151">
-        <v>5953</v>
-      </c>
-      <c r="D151">
-        <v>7281</v>
-      </c>
-      <c r="E151">
-        <v>5212</v>
-      </c>
-      <c r="F151">
-        <v>9605</v>
-      </c>
-      <c r="G151">
-        <v>201804</v>
-      </c>
-      <c r="H151">
-        <v>2018</v>
-      </c>
-      <c r="I151">
-        <v>4</v>
-      </c>
-      <c r="J151">
-        <v>6215</v>
-      </c>
-      <c r="K151">
-        <v>7280</v>
-      </c>
-      <c r="L151">
-        <v>6044</v>
-      </c>
-      <c r="M151">
-        <v>13107</v>
-      </c>
-      <c r="N151">
-        <v>10745</v>
-      </c>
-      <c r="O151">
-        <v>87661</v>
-      </c>
-      <c r="P151">
-        <v>74927</v>
-      </c>
-      <c r="Q151">
-        <v>55082</v>
-      </c>
-      <c r="R151">
-        <v>84833</v>
-      </c>
-      <c r="S151">
-        <v>87453</v>
-      </c>
-      <c r="T151">
-        <v>6934</v>
-      </c>
-      <c r="U151">
-        <v>5210</v>
-      </c>
-      <c r="V151">
-        <v>5138</v>
-      </c>
-      <c r="W151">
-        <v>4733</v>
-      </c>
-      <c r="X151">
-        <v>6670</v>
-      </c>
-      <c r="Y151">
-        <v>13576</v>
-      </c>
-      <c r="Z151">
-        <v>17992</v>
-      </c>
-      <c r="AA151">
-        <v>10888</v>
-      </c>
-      <c r="AB151">
-        <v>15676</v>
-      </c>
-      <c r="AC151">
-        <v>8665</v>
-      </c>
-      <c r="AD151">
-        <v>5302</v>
-      </c>
-      <c r="AE151">
-        <v>3424</v>
-      </c>
-      <c r="AF151">
-        <v>3598</v>
-      </c>
-      <c r="AG151">
-        <v>4611</v>
-      </c>
-      <c r="AH151">
-        <v>7012</v>
-      </c>
-      <c r="AI151">
-        <v>6810</v>
-      </c>
-      <c r="AJ151">
-        <v>7626</v>
-      </c>
-      <c r="AK151">
-        <v>5922</v>
-      </c>
-      <c r="AL151">
-        <v>7519</v>
-      </c>
-      <c r="AM151">
-        <v>7568</v>
-      </c>
-    </row>
-    <row r="152" spans="1:39">
-      <c r="A152">
-        <v>11349</v>
-      </c>
-      <c r="B152">
-        <v>91212</v>
-      </c>
-      <c r="C152">
-        <v>7358</v>
-      </c>
-      <c r="D152">
-        <v>5196</v>
-      </c>
-      <c r="E152">
-        <v>6786</v>
-      </c>
-      <c r="F152">
-        <v>8838</v>
-      </c>
-      <c r="G152">
-        <v>201805</v>
-      </c>
-      <c r="H152">
-        <v>2018</v>
-      </c>
-      <c r="I152">
-        <v>5</v>
-      </c>
-      <c r="J152">
-        <v>7421</v>
-      </c>
-      <c r="K152">
-        <v>6215</v>
-      </c>
-      <c r="L152">
-        <v>7280</v>
-      </c>
-      <c r="M152">
-        <v>7683</v>
-      </c>
-      <c r="N152">
-        <v>8186</v>
-      </c>
-      <c r="O152">
-        <v>82951</v>
-      </c>
-      <c r="P152">
-        <v>87661</v>
-      </c>
-      <c r="Q152">
-        <v>74927</v>
-      </c>
-      <c r="R152">
-        <v>74945</v>
-      </c>
-      <c r="S152">
-        <v>85128</v>
-      </c>
-      <c r="T152">
-        <v>7281</v>
-      </c>
-      <c r="U152">
-        <v>6934</v>
-      </c>
-      <c r="V152">
-        <v>5210</v>
-      </c>
-      <c r="W152">
-        <v>9126</v>
-      </c>
-      <c r="X152">
-        <v>3273</v>
-      </c>
-      <c r="Y152">
-        <v>9605</v>
-      </c>
-      <c r="Z152">
-        <v>13576</v>
-      </c>
-      <c r="AA152">
-        <v>17992</v>
-      </c>
-      <c r="AB152">
-        <v>11999</v>
-      </c>
-      <c r="AC152">
-        <v>9178</v>
-      </c>
-      <c r="AD152">
-        <v>5953</v>
-      </c>
-      <c r="AE152">
-        <v>5302</v>
-      </c>
-      <c r="AF152">
-        <v>3424</v>
-      </c>
-      <c r="AG152">
-        <v>4026</v>
-      </c>
-      <c r="AH152">
-        <v>6235</v>
-      </c>
-      <c r="AI152">
-        <v>5212</v>
-      </c>
-      <c r="AJ152">
-        <v>6810</v>
-      </c>
-      <c r="AK152">
-        <v>7626</v>
-      </c>
-      <c r="AL152">
-        <v>4961</v>
-      </c>
-      <c r="AM152">
-        <v>8947</v>
-      </c>
-    </row>
-    <row r="153" spans="1:39">
-      <c r="A153">
-        <v>9479</v>
-      </c>
-      <c r="B153">
-        <v>81531</v>
-      </c>
-      <c r="C153">
-        <v>7578</v>
-      </c>
-      <c r="D153">
-        <v>7573</v>
-      </c>
-      <c r="E153">
-        <v>6832</v>
-      </c>
-      <c r="F153">
-        <v>5830</v>
-      </c>
-      <c r="G153">
-        <v>201806</v>
-      </c>
-      <c r="H153">
-        <v>2018</v>
-      </c>
-      <c r="I153">
-        <v>6</v>
-      </c>
-      <c r="J153">
-        <v>11349</v>
-      </c>
-      <c r="K153">
-        <v>7421</v>
-      </c>
-      <c r="L153">
-        <v>6215</v>
-      </c>
-      <c r="M153">
-        <v>7865</v>
-      </c>
-      <c r="N153">
-        <v>8186</v>
-      </c>
-      <c r="O153">
-        <v>91212</v>
-      </c>
-      <c r="P153">
-        <v>82951</v>
-      </c>
-      <c r="Q153">
-        <v>87661</v>
-      </c>
-      <c r="R153">
-        <v>78976</v>
-      </c>
-      <c r="S153">
-        <v>84924</v>
-      </c>
-      <c r="T153">
-        <v>5196</v>
-      </c>
-      <c r="U153">
-        <v>7281</v>
-      </c>
-      <c r="V153">
-        <v>6934</v>
-      </c>
-      <c r="W153">
-        <v>8774</v>
-      </c>
-      <c r="X153">
-        <v>3273</v>
-      </c>
-      <c r="Y153">
-        <v>8838</v>
-      </c>
-      <c r="Z153">
-        <v>9605</v>
-      </c>
-      <c r="AA153">
-        <v>13576</v>
-      </c>
-      <c r="AB153">
-        <v>11721</v>
-      </c>
-      <c r="AC153">
-        <v>9178</v>
-      </c>
-      <c r="AD153">
-        <v>7358</v>
-      </c>
-      <c r="AE153">
-        <v>5953</v>
-      </c>
-      <c r="AF153">
-        <v>5302</v>
-      </c>
-      <c r="AG153">
-        <v>4861</v>
-      </c>
-      <c r="AH153">
-        <v>6235</v>
-      </c>
-      <c r="AI153">
-        <v>6786</v>
-      </c>
-      <c r="AJ153">
-        <v>5212</v>
-      </c>
-      <c r="AK153">
-        <v>6810</v>
-      </c>
-      <c r="AL153">
-        <v>5405</v>
-      </c>
-      <c r="AM153">
         <v>8954</v>
       </c>
     </row>
